--- a/biology/Botanique/Grand_Alexandre/Grand_Alexandre.xlsx
+++ b/biology/Botanique/Grand_Alexandre/Grand_Alexandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grand alexandre est une variété de pomme russe apparue en France vers 1838. Elle est aujourd'hui une des variétés préférées des amateurs de pommes en France, surtout à cause de sa taille qui peut être, parfois, spectaculaire.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre,
 Alexander.
-André Leroy[1] donne 16 synonymes, parmi lesquels : 
+André Leroy donne 16 synonymes, parmi lesquels : 
 Aporta, qui serait le nom d'origine du pommier russe.
 Comte Woronzoff, Corail, Fin-d'automne, Pomona britannica, Président Napoléon, Beauty of Queen, Aubertin.
 </t>
@@ -546,7 +560,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Leroy, cette pomme serait apparue en Ukraine vers 1700. Importée en 1817 par un pépiniériste anglais qui la nomme "Alexandre Ier", en l'honneur du tsar. Son nom est donc sans rapport avec celui d'un lointain conquérant macédonien.
 La taille du fruit lui fait gagner le surnom de "gros-alexandre", qui changera lui-même en "grand-alexandre".
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leroy qualifie la grosseur des fruits de considérable, précisant en avoir vus, en 1846, de « 37 centimètres de circonférence ».
 En dehors de la grosseur du fruit, qui fait rapidement identifier cette pomme, la couleur de sa peau épaisse est à fond vert clair jaunâtre brillant, maculée de brun autour du pédoncule (russeting), fortement ponctuée de gris, lavée et rubanée d'un beau carmin faiblement voilé par une efflorescence glauque. 
@@ -612,7 +630,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de la grosseur de ses fruits, l'arbre quoique vigoureux n'est pas indiqué pour une formation en haute tige (chute des fruits prématurés au premier coup de vent), mais plutôt en forme naine.
 La variété atteint la pleine floraison trois jours avant Golden Delicious ; il est donc pollinisé par Jonathan, Grenadier, James Grieve, Granny Smith, Reinette Baumann, Golden Delicious.
@@ -646,7 +666,9 @@
           <t>Disponibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que peu fréquente, cette variété peut toujours être trouvée à la vente.
 </t>
@@ -677,7 +699,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Un semis de 'Grand Alexandre' obtenu à Pontoise en 1869 a donné une autre variété aussi très appréciée : la Belle de Pontoise. Grand Alexandre est aussi un des parents de la variété "Wolf River".
 </t>
